--- a/Code/Results/Cases/Case_9_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023830300767222</v>
+        <v>1.021882580640907</v>
       </c>
       <c r="D2">
-        <v>1.04303383013023</v>
+        <v>1.040283791650393</v>
       </c>
       <c r="E2">
-        <v>1.026767776706431</v>
+        <v>1.025181356680577</v>
       </c>
       <c r="F2">
-        <v>1.043958505303057</v>
+        <v>1.0419809159282</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.058810668733519</v>
+        <v>1.057280867394514</v>
       </c>
       <c r="J2">
-        <v>1.045320885772995</v>
+        <v>1.043427921687641</v>
       </c>
       <c r="K2">
-        <v>1.05392450458768</v>
+        <v>1.051209049242799</v>
       </c>
       <c r="L2">
-        <v>1.037866376308077</v>
+        <v>1.036300677490102</v>
       </c>
       <c r="M2">
-        <v>1.054837602523374</v>
+        <v>1.052884804420955</v>
       </c>
       <c r="N2">
-        <v>1.018265137821309</v>
+        <v>1.018297917773646</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.051972584918036</v>
+        <v>1.050427098652776</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.049199490570123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047288135276042</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025373969740596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027950939711755</v>
+        <v>1.025746662264431</v>
       </c>
       <c r="D3">
-        <v>1.045939729623567</v>
+        <v>1.042904463976216</v>
       </c>
       <c r="E3">
-        <v>1.030080793028743</v>
+        <v>1.028256260724959</v>
       </c>
       <c r="F3">
-        <v>1.046908353237326</v>
+        <v>1.044717635275767</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.060123434497342</v>
+        <v>1.058418832811606</v>
       </c>
       <c r="J3">
-        <v>1.047707587606319</v>
+        <v>1.045559233711714</v>
       </c>
       <c r="K3">
-        <v>1.056016702081874</v>
+        <v>1.053016298406683</v>
       </c>
       <c r="L3">
-        <v>1.040342724845942</v>
+        <v>1.038539925316517</v>
       </c>
       <c r="M3">
-        <v>1.056974252931038</v>
+        <v>1.054808614197296</v>
       </c>
       <c r="N3">
-        <v>1.019129061099818</v>
+        <v>1.018894908052539</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.053663572196171</v>
+        <v>1.051949642958868</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.050676189267669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048563080124204</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025776554744649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030568084584099</v>
+        <v>1.028202949870827</v>
       </c>
       <c r="D4">
-        <v>1.047789182630169</v>
+        <v>1.044574080301211</v>
       </c>
       <c r="E4">
-        <v>1.032190181178956</v>
+        <v>1.030216362106018</v>
       </c>
       <c r="F4">
-        <v>1.048789171657575</v>
+        <v>1.046464327960857</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.06094792215494</v>
+        <v>1.059133001123693</v>
       </c>
       <c r="J4">
-        <v>1.049220909612096</v>
+        <v>1.046911736292012</v>
       </c>
       <c r="K4">
-        <v>1.057343118355103</v>
+        <v>1.054162729012843</v>
       </c>
       <c r="L4">
-        <v>1.041915022636767</v>
+        <v>1.039963283166951</v>
       </c>
       <c r="M4">
-        <v>1.058332363818104</v>
+        <v>1.056032536269437</v>
       </c>
       <c r="N4">
-        <v>1.019676524552166</v>
+        <v>1.019273848474532</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.054738405973238</v>
+        <v>1.052918279522332</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.051614935018387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049374648168581</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026029642818822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031662335532337</v>
+        <v>1.029229901081762</v>
       </c>
       <c r="D5">
-        <v>1.048565329057789</v>
+        <v>1.045275080119204</v>
       </c>
       <c r="E5">
-        <v>1.03307438424349</v>
+        <v>1.031037981255315</v>
       </c>
       <c r="F5">
-        <v>1.049577758746996</v>
+        <v>1.047196871007091</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.061292244237905</v>
+        <v>1.059431128937811</v>
       </c>
       <c r="J5">
-        <v>1.049855159062573</v>
+        <v>1.047478566018375</v>
       </c>
       <c r="K5">
-        <v>1.057900113814673</v>
+        <v>1.054644448562639</v>
       </c>
       <c r="L5">
-        <v>1.042574351981126</v>
+        <v>1.04056011655316</v>
       </c>
       <c r="M5">
-        <v>1.058901955187783</v>
+        <v>1.056546007310623</v>
       </c>
       <c r="N5">
-        <v>1.019907377792346</v>
+        <v>1.019433606536695</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.055189190539673</v>
+        <v>1.053324650468846</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.052015822704945</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049723027095678</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026136437598816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031851991186606</v>
+        <v>1.029407284210499</v>
       </c>
       <c r="D6">
-        <v>1.04870231488978</v>
+        <v>1.045398742969514</v>
       </c>
       <c r="E6">
-        <v>1.033228962684151</v>
+        <v>1.031180984813489</v>
       </c>
       <c r="F6">
-        <v>1.049715126350262</v>
+        <v>1.047324237283076</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.061354056321021</v>
+        <v>1.059484663423994</v>
       </c>
       <c r="J6">
-        <v>1.049967668798939</v>
+        <v>1.047578797243544</v>
       </c>
       <c r="K6">
-        <v>1.058000275217132</v>
+        <v>1.05473126863206</v>
       </c>
       <c r="L6">
-        <v>1.042691158281934</v>
+        <v>1.040665370814195</v>
       </c>
       <c r="M6">
-        <v>1.059002542819659</v>
+        <v>1.056636584075779</v>
       </c>
       <c r="N6">
-        <v>1.019950130447214</v>
+        <v>1.019462978341097</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.055268797322026</v>
+        <v>1.053396334655838</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.052095247975025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049793893713385</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02615687299955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030600569399874</v>
+        <v>1.028241265629977</v>
       </c>
       <c r="D7">
-        <v>1.047818672530132</v>
+        <v>1.044607490025565</v>
       </c>
       <c r="E7">
-        <v>1.03221985824798</v>
+        <v>1.030251394671204</v>
       </c>
       <c r="F7">
-        <v>1.048814130526473</v>
+        <v>1.046492649233484</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.060964251552412</v>
+        <v>1.059152256694262</v>
       </c>
       <c r="J7">
-        <v>1.049246811518488</v>
+        <v>1.046943305765857</v>
       </c>
       <c r="K7">
-        <v>1.057369471585823</v>
+        <v>1.054192945680197</v>
       </c>
       <c r="L7">
-        <v>1.041941492214094</v>
+        <v>1.039995039292559</v>
       </c>
       <c r="M7">
-        <v>1.05835423892703</v>
+        <v>1.056057727754414</v>
       </c>
       <c r="N7">
-        <v>1.019690888819395</v>
+        <v>1.01931280039633</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.054755718321762</v>
+        <v>1.052938216557521</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.05165336396072</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049417820054411</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026041152860899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025256043738215</v>
+        <v>1.023246231637976</v>
       </c>
       <c r="D8">
-        <v>1.044046443937978</v>
+        <v>1.041217897179221</v>
       </c>
       <c r="E8">
-        <v>1.02791756088442</v>
+        <v>1.026274318612016</v>
       </c>
       <c r="F8">
-        <v>1.044979512446679</v>
+        <v>1.042944857063186</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.059274344704235</v>
+        <v>1.0576984466507</v>
       </c>
       <c r="J8">
-        <v>1.046156153774793</v>
+        <v>1.044200947633615</v>
       </c>
       <c r="K8">
-        <v>1.054661086473754</v>
+        <v>1.051867055715012</v>
       </c>
       <c r="L8">
-        <v>1.038732197082558</v>
+        <v>1.037109771031306</v>
       </c>
       <c r="M8">
-        <v>1.055582819915384</v>
+        <v>1.053572914302805</v>
       </c>
       <c r="N8">
-        <v>1.018574093629793</v>
+        <v>1.018600890106545</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.052562365092529</v>
+        <v>1.050971683922786</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.049742875111828</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047778241237279</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025530078626558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015414717633505</v>
+        <v>1.014037313369562</v>
       </c>
       <c r="D9">
-        <v>1.037122307584097</v>
+        <v>1.034987548859529</v>
       </c>
       <c r="E9">
-        <v>1.020032349855014</v>
+        <v>1.01897674647737</v>
       </c>
       <c r="F9">
-        <v>1.037975898102103</v>
+        <v>1.036461760552246</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.056080685795548</v>
+        <v>1.054929851304674</v>
       </c>
       <c r="J9">
-        <v>1.040434643683968</v>
+        <v>1.039103933110831</v>
       </c>
       <c r="K9">
-        <v>1.049640502921477</v>
+        <v>1.047537382362955</v>
       </c>
       <c r="L9">
-        <v>1.0328085669341</v>
+        <v>1.031769263321032</v>
       </c>
       <c r="M9">
-        <v>1.050481489076476</v>
+        <v>1.048989727824197</v>
       </c>
       <c r="N9">
-        <v>1.016495892329537</v>
+        <v>1.017180971213913</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.048525058998059</v>
+        <v>1.047344442000828</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046189943580292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044713538081396</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024550080253007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008661052803794</v>
+        <v>1.007758655208612</v>
       </c>
       <c r="D10">
-        <v>1.032421595597951</v>
+        <v>1.030791733946936</v>
       </c>
       <c r="E10">
-        <v>1.014671866347109</v>
+        <v>1.014056420061435</v>
       </c>
       <c r="F10">
-        <v>1.033289233916574</v>
+        <v>1.03215734984193</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053871017663021</v>
+        <v>1.053030777880118</v>
       </c>
       <c r="J10">
-        <v>1.036535203403315</v>
+        <v>1.035667790404312</v>
       </c>
       <c r="K10">
-        <v>1.046229144145413</v>
+        <v>1.044626433097214</v>
       </c>
       <c r="L10">
-        <v>1.028781174094852</v>
+        <v>1.028176436201184</v>
       </c>
       <c r="M10">
-        <v>1.047082374127093</v>
+        <v>1.04596929275402</v>
       </c>
       <c r="N10">
-        <v>1.015104041269553</v>
+        <v>1.01635594954507</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045885892202384</v>
+        <v>1.04500502291552</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.04379456163113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042673656683773</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023901484061347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006420204550984</v>
+        <v>1.005621129499311</v>
       </c>
       <c r="D11">
-        <v>1.031071058770228</v>
+        <v>1.029569815943451</v>
       </c>
       <c r="E11">
-        <v>1.013054363883011</v>
+        <v>1.012512722337992</v>
       </c>
       <c r="F11">
-        <v>1.032355136159075</v>
+        <v>1.031318537450539</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.05334064775721</v>
+        <v>1.052574860093162</v>
       </c>
       <c r="J11">
-        <v>1.035528313254438</v>
+        <v>1.034761918293054</v>
       </c>
       <c r="K11">
-        <v>1.045429881306943</v>
+        <v>1.043954833057311</v>
       </c>
       <c r="L11">
-        <v>1.027734222790269</v>
+        <v>1.027202462941798</v>
       </c>
       <c r="M11">
-        <v>1.046691631586815</v>
+        <v>1.045673051311239</v>
       </c>
       <c r="N11">
-        <v>1.014949108990024</v>
+        <v>1.016457642987557</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.046009115652398</v>
+        <v>1.04520343130597</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043261939621934</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042234518603678</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023870615998423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005831606518579</v>
+        <v>1.005013635336951</v>
       </c>
       <c r="D12">
-        <v>1.03080474015787</v>
+        <v>1.029303917765029</v>
       </c>
       <c r="E12">
-        <v>1.012703227026882</v>
+        <v>1.012125004355148</v>
       </c>
       <c r="F12">
-        <v>1.032396335856048</v>
+        <v>1.031357425453767</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.053291591796965</v>
+        <v>1.052521448982964</v>
       </c>
       <c r="J12">
-        <v>1.035391196552045</v>
+        <v>1.034607314408121</v>
       </c>
       <c r="K12">
-        <v>1.045364645685294</v>
+        <v>1.043890441070613</v>
       </c>
       <c r="L12">
-        <v>1.027591033954698</v>
+        <v>1.027023537676149</v>
       </c>
       <c r="M12">
-        <v>1.046928123324409</v>
+        <v>1.045907554164017</v>
       </c>
       <c r="N12">
-        <v>1.015055144416453</v>
+        <v>1.016603653687068</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.046519966791151</v>
+        <v>1.045712978365885</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.043215816876329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042188993142231</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023937315769434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.00650138980338</v>
+        <v>1.005553237334247</v>
       </c>
       <c r="D13">
-        <v>1.031382498748023</v>
+        <v>1.029771635848243</v>
       </c>
       <c r="E13">
-        <v>1.013326273177449</v>
+        <v>1.01260934410684</v>
       </c>
       <c r="F13">
-        <v>1.033222802124124</v>
+        <v>1.032096627313205</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.05363106100667</v>
+        <v>1.052787272065034</v>
       </c>
       <c r="J13">
-        <v>1.035941500592641</v>
+        <v>1.035032650885573</v>
       </c>
       <c r="K13">
-        <v>1.045890082635902</v>
+        <v>1.044307656508622</v>
       </c>
       <c r="L13">
-        <v>1.028159347941367</v>
+        <v>1.02745565493744</v>
       </c>
       <c r="M13">
-        <v>1.047698039501281</v>
+        <v>1.046591641405653</v>
       </c>
       <c r="N13">
-        <v>1.015385218719991</v>
+        <v>1.016767021681236</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.0474033976582</v>
+        <v>1.046528759127584</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.043584845676056</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042481258969577</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024092742817226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.007537102057218</v>
+        <v>1.00645063593254</v>
       </c>
       <c r="D14">
-        <v>1.032167262270314</v>
+        <v>1.030431835712716</v>
       </c>
       <c r="E14">
-        <v>1.014200348985753</v>
+        <v>1.013344062996401</v>
       </c>
       <c r="F14">
-        <v>1.034154099618668</v>
+        <v>1.032930478488724</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.05404282300927</v>
+        <v>1.05311778039801</v>
       </c>
       <c r="J14">
-        <v>1.03663486696301</v>
+        <v>1.035592775861833</v>
       </c>
       <c r="K14">
-        <v>1.046523228067507</v>
+        <v>1.044818047174081</v>
       </c>
       <c r="L14">
-        <v>1.028875970252426</v>
+        <v>1.028035287077972</v>
       </c>
       <c r="M14">
-        <v>1.048475599318114</v>
+        <v>1.047273184310753</v>
       </c>
       <c r="N14">
-        <v>1.015715904101147</v>
+        <v>1.016891262316086</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048190251901785</v>
+        <v>1.047239836204554</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.044033899112535</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042843655264592</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024242402541304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008074578915977</v>
+        <v>1.00692919204613</v>
       </c>
       <c r="D15">
-        <v>1.032555738956762</v>
+        <v>1.030764947938802</v>
       </c>
       <c r="E15">
-        <v>1.014636971929428</v>
+        <v>1.013723761645773</v>
       </c>
       <c r="F15">
-        <v>1.034572248118664</v>
+        <v>1.033305670155567</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.054236236024527</v>
+        <v>1.053275642227514</v>
       </c>
       <c r="J15">
-        <v>1.03696618078439</v>
+        <v>1.035867160193508</v>
       </c>
       <c r="K15">
-        <v>1.046820084947814</v>
+        <v>1.045060264152899</v>
       </c>
       <c r="L15">
-        <v>1.029217611876228</v>
+        <v>1.028320910588961</v>
       </c>
       <c r="M15">
-        <v>1.048801886170012</v>
+        <v>1.047557087952501</v>
       </c>
       <c r="N15">
-        <v>1.015852317091073</v>
+        <v>1.016933466714252</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048485463485168</v>
+        <v>1.047501572789758</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.044249584030742</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043021279081413</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024303747464009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010809342444961</v>
+        <v>1.009428493862458</v>
       </c>
       <c r="D16">
-        <v>1.034444954736775</v>
+        <v>1.032417676943758</v>
       </c>
       <c r="E16">
-        <v>1.016783251993479</v>
+        <v>1.015655624987351</v>
       </c>
       <c r="F16">
-        <v>1.036433678604803</v>
+        <v>1.034985923081486</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05512646031284</v>
+        <v>1.054017483415619</v>
       </c>
       <c r="J16">
-        <v>1.03852512707524</v>
+        <v>1.037197356633536</v>
       </c>
       <c r="K16">
-        <v>1.048184014815598</v>
+        <v>1.046190256642882</v>
       </c>
       <c r="L16">
-        <v>1.030820142488461</v>
+        <v>1.029711985786255</v>
       </c>
       <c r="M16">
-        <v>1.050140020368443</v>
+        <v>1.048716067180035</v>
       </c>
       <c r="N16">
-        <v>1.016382607361283</v>
+        <v>1.017073375987028</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049504654709424</v>
+        <v>1.048379127598393</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.045217034663159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043823629606104</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024541222208071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012368922265728</v>
+        <v>1.010888313846277</v>
       </c>
       <c r="D17">
-        <v>1.035486304564523</v>
+        <v>1.033348904104812</v>
       </c>
       <c r="E17">
-        <v>1.017977608062935</v>
+        <v>1.016765415703257</v>
       </c>
       <c r="F17">
-        <v>1.03737124132037</v>
+        <v>1.035840538269123</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.055592681639071</v>
+        <v>1.054416723285559</v>
       </c>
       <c r="J17">
-        <v>1.039359940980442</v>
+        <v>1.037934406158682</v>
       </c>
       <c r="K17">
-        <v>1.048899480220145</v>
+        <v>1.046796424925176</v>
       </c>
       <c r="L17">
-        <v>1.031677599903232</v>
+        <v>1.030485736273379</v>
       </c>
       <c r="M17">
-        <v>1.050754279094028</v>
+        <v>1.049248039419944</v>
       </c>
       <c r="N17">
-        <v>1.016617659707964</v>
+        <v>1.017145572817646</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.049862023467745</v>
+        <v>1.04867133771648</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.045725437355396</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.044255004611397</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02464644734709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013031009793544</v>
+        <v>1.011553089117131</v>
       </c>
       <c r="D18">
-        <v>1.035854459524898</v>
+        <v>1.033702628980731</v>
       </c>
       <c r="E18">
-        <v>1.018427569595316</v>
+        <v>1.017230634335292</v>
       </c>
       <c r="F18">
-        <v>1.037537163573651</v>
+        <v>1.03599765936983</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.055713536531222</v>
+        <v>1.054532372643743</v>
       </c>
       <c r="J18">
-        <v>1.039610602200207</v>
+        <v>1.03818662924585</v>
       </c>
       <c r="K18">
-        <v>1.049081724710719</v>
+        <v>1.046963909086201</v>
       </c>
       <c r="L18">
-        <v>1.031935623657191</v>
+        <v>1.030758428224593</v>
       </c>
       <c r="M18">
-        <v>1.050737955298258</v>
+        <v>1.049222667351886</v>
       </c>
       <c r="N18">
-        <v>1.016596875048233</v>
+        <v>1.017111935543139</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049613258334923</v>
+        <v>1.04841517364517</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.045842796853206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044360787833184</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024629298087701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012887356988389</v>
+        <v>1.011496841934521</v>
       </c>
       <c r="D19">
-        <v>1.035622597965424</v>
+        <v>1.033537910568967</v>
       </c>
       <c r="E19">
-        <v>1.018212456317747</v>
+        <v>1.017112814296371</v>
       </c>
       <c r="F19">
-        <v>1.03700345543275</v>
+        <v>1.03551796146197</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.055528821389613</v>
+        <v>1.054394616772203</v>
       </c>
       <c r="J19">
-        <v>1.039340347651586</v>
+        <v>1.038000307959917</v>
       </c>
       <c r="K19">
-        <v>1.048792116247103</v>
+        <v>1.046740223320403</v>
       </c>
       <c r="L19">
-        <v>1.031661154955164</v>
+        <v>1.03057955892297</v>
       </c>
       <c r="M19">
-        <v>1.050151344112124</v>
+        <v>1.048689121766499</v>
       </c>
       <c r="N19">
-        <v>1.016358629946679</v>
+        <v>1.016970321125347</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.048826724996514</v>
+        <v>1.047670225713039</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.045644355073497</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044209582840881</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024506015454168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010464028863467</v>
+        <v>1.009400157909049</v>
       </c>
       <c r="D20">
-        <v>1.03369192781362</v>
+        <v>1.031903119831093</v>
       </c>
       <c r="E20">
-        <v>1.016112137747317</v>
+        <v>1.015343656070419</v>
       </c>
       <c r="F20">
-        <v>1.034545289127158</v>
+        <v>1.033290791730995</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.054480455472242</v>
+        <v>1.053539738627835</v>
       </c>
       <c r="J20">
-        <v>1.037597454931427</v>
+        <v>1.036573467314387</v>
       </c>
       <c r="K20">
-        <v>1.047167132802368</v>
+        <v>1.045407266195465</v>
       </c>
       <c r="L20">
-        <v>1.029877470081589</v>
+        <v>1.029121966713593</v>
       </c>
       <c r="M20">
-        <v>1.048006732709788</v>
+        <v>1.046772475568895</v>
       </c>
       <c r="N20">
-        <v>1.015499526537782</v>
+        <v>1.016511176139359</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046606962435709</v>
+        <v>1.045630185764936</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044499337580244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.043271428717806</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024081316442924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005238086196272</v>
+        <v>1.004702253683616</v>
       </c>
       <c r="D21">
-        <v>1.030021409101179</v>
+        <v>1.028740614252015</v>
       </c>
       <c r="E21">
-        <v>1.01194591065107</v>
+        <v>1.011680737130207</v>
       </c>
       <c r="F21">
-        <v>1.03081415615344</v>
+        <v>1.029953654655489</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052711521346287</v>
+        <v>1.052094172879028</v>
       </c>
       <c r="J21">
-        <v>1.034518426006132</v>
+        <v>1.034004682740499</v>
       </c>
       <c r="K21">
-        <v>1.044455496519861</v>
+        <v>1.043197204785224</v>
       </c>
       <c r="L21">
-        <v>1.026704444139654</v>
+        <v>1.026444142762512</v>
       </c>
       <c r="M21">
-        <v>1.045234351581722</v>
+        <v>1.044388930679169</v>
       </c>
       <c r="N21">
-        <v>1.014360904108911</v>
+        <v>1.016225839725098</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.044372335370846</v>
+        <v>1.043703244673189</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042585352493388</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041712401776294</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023587728915797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001907855470234</v>
+        <v>1.001706419884634</v>
       </c>
       <c r="D22">
-        <v>1.027694638000594</v>
+        <v>1.026735308664098</v>
       </c>
       <c r="E22">
-        <v>1.009302881886385</v>
+        <v>1.009357142742258</v>
       </c>
       <c r="F22">
-        <v>1.028483799966406</v>
+        <v>1.027872920199736</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051582220209165</v>
+        <v>1.051168799536669</v>
       </c>
       <c r="J22">
-        <v>1.03256453849228</v>
+        <v>1.032371898604563</v>
       </c>
       <c r="K22">
-        <v>1.042736724142496</v>
+        <v>1.041795109546812</v>
       </c>
       <c r="L22">
-        <v>1.024692272443603</v>
+        <v>1.024745484261123</v>
       </c>
       <c r="M22">
-        <v>1.043511345915893</v>
+        <v>1.042911718974413</v>
       </c>
       <c r="N22">
-        <v>1.0136434040514</v>
+        <v>1.016042473124193</v>
       </c>
       <c r="O22">
-        <v>1.03</v>
+        <v>1.030000000000001</v>
       </c>
       <c r="P22">
-        <v>1.043008697911036</v>
+        <v>1.042534134879951</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041356766141526</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.04070641749673</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023276837058778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003661719654666</v>
+        <v>1.003270173053165</v>
       </c>
       <c r="D23">
-        <v>1.028913741011211</v>
+        <v>1.027774320494534</v>
       </c>
       <c r="E23">
-        <v>1.010689970488911</v>
+        <v>1.010562232932545</v>
       </c>
       <c r="F23">
-        <v>1.02970876671255</v>
+        <v>1.028957515925783</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.052172527324765</v>
+        <v>1.051644279790681</v>
       </c>
       <c r="J23">
-        <v>1.033586858233198</v>
+        <v>1.033211899401948</v>
       </c>
       <c r="K23">
-        <v>1.043633307365367</v>
+        <v>1.042514384506413</v>
       </c>
       <c r="L23">
-        <v>1.025744613498796</v>
+        <v>1.025619280344325</v>
       </c>
       <c r="M23">
-        <v>1.04441406581797</v>
+        <v>1.043676295965661</v>
       </c>
       <c r="N23">
-        <v>1.014013166764084</v>
+        <v>1.016086538283758</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.043723137362127</v>
+        <v>1.043139244351845</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041981135952127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041204479847814</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023429769535629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010449081827936</v>
+        <v>1.009400298978443</v>
       </c>
       <c r="D24">
-        <v>1.033652952453117</v>
+        <v>1.031874868833975</v>
       </c>
       <c r="E24">
-        <v>1.016079997598241</v>
+        <v>1.015328571749802</v>
       </c>
       <c r="F24">
-        <v>1.034472136872849</v>
+        <v>1.033226577811787</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.054446877941064</v>
+        <v>1.053513982407049</v>
       </c>
       <c r="J24">
-        <v>1.037550752401699</v>
+        <v>1.036541232992861</v>
       </c>
       <c r="K24">
-        <v>1.047113780493197</v>
+        <v>1.045364430396545</v>
       </c>
       <c r="L24">
-        <v>1.029830494755864</v>
+        <v>1.029091743645189</v>
       </c>
       <c r="M24">
-        <v>1.047919769677851</v>
+        <v>1.046694284423017</v>
       </c>
       <c r="N24">
-        <v>1.015455887222771</v>
+        <v>1.016483008386972</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046497649322566</v>
+        <v>1.045527767253441</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044434524187768</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04321137095774</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024056163191577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018038178411782</v>
+        <v>1.016474585627454</v>
       </c>
       <c r="D25">
-        <v>1.038974036597138</v>
+        <v>1.036642381331239</v>
       </c>
       <c r="E25">
-        <v>1.022135351313101</v>
+        <v>1.020905291126873</v>
       </c>
       <c r="F25">
-        <v>1.039837922434145</v>
+        <v>1.038174696501106</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.056949656419958</v>
+        <v>1.055676944959715</v>
       </c>
       <c r="J25">
-        <v>1.041973370207525</v>
+        <v>1.040459955804465</v>
       </c>
       <c r="K25">
-        <v>1.050996023827228</v>
+        <v>1.048697306578845</v>
       </c>
       <c r="L25">
-        <v>1.034399494519935</v>
+        <v>1.033187521300533</v>
       </c>
       <c r="M25">
-        <v>1.051847753399089</v>
+        <v>1.050207954507563</v>
       </c>
       <c r="N25">
-        <v>1.01706386545911</v>
+        <v>1.017531868294201</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.049606352952397</v>
+        <v>1.048308577070566</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04717657471863</v>
+        <v>1.045564687158775</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02481822572465</v>
       </c>
     </row>
   </sheetData>
